--- a/test.xlsx
+++ b/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,14 +456,19 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>entry Time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Item1</t>
+          <t>Jaya</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,12 +486,15 @@
         <is>
           <t>2023-01-01</t>
         </is>
+      </c>
+      <c r="F2" t="n">
+        <v>603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Item2</t>
+          <t>Jaya</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,12 +512,15 @@
         <is>
           <t>2023-02-01</t>
         </is>
+      </c>
+      <c r="F3" t="n">
+        <v>603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Item3</t>
+          <t>Jaya</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -527,6 +538,9 @@
         <is>
           <t>2023-03-01</t>
         </is>
+      </c>
+      <c r="F4" t="n">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
